--- a/data/case1/14/Qlm1_2.xlsx
+++ b/data/case1/14/Qlm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.19752476865115653</v>
+        <v>-0.30448347740663451</v>
       </c>
       <c r="B1" s="0">
-        <v>0.19708493615950573</v>
+        <v>0.30357134761589322</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15092125612955609</v>
+        <v>-0.23434420572618908</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14958855993983189</v>
+        <v>0.23158670674378623</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.099872650632201854</v>
+        <v>-0.090808514708390575</v>
       </c>
       <c r="B3" s="0">
-        <v>0.099510100511288613</v>
+        <v>0.090487922041708302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.091510100577069764</v>
+        <v>-0.082487922090740184</v>
       </c>
       <c r="B4" s="0">
-        <v>0.091192683579896183</v>
+        <v>0.082210768690197611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.088192683616470369</v>
+        <v>-0.079210768718958491</v>
       </c>
       <c r="B5" s="0">
-        <v>0.087127560594989717</v>
+        <v>0.078287814848184922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.028054780339608953</v>
+        <v>-0.01603403751328969</v>
       </c>
       <c r="B6" s="0">
-        <v>0.02782478164960267</v>
+        <v>0.015924314797244321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.050153130054043871</v>
+        <v>-0.0059243148620966579</v>
       </c>
       <c r="B7" s="0">
-        <v>0.049961255425436946</v>
+        <v>0.0059108400774983139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.039961255520268413</v>
+        <v>0.0040891598574335219</v>
       </c>
       <c r="B8" s="0">
-        <v>0.039577317890689745</v>
+        <v>-0.0040937251791057783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.015964372762071743</v>
+        <v>0.0060937251506616441</v>
       </c>
       <c r="B9" s="0">
-        <v>0.015857975006063452</v>
+        <v>-0.0060958277885636569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013857975054742511</v>
+        <v>0.0080958277608704776</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013852569904873491</v>
+        <v>-0.0080955717409327832</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024402645598600614</v>
+        <v>-0.024393665969102862</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024375729119337386</v>
+        <v>0.024367135021029718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020875729178789104</v>
+        <v>-0.020867135056049868</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020675533695257986</v>
+        <v>0.02067183770096559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017175533758148731</v>
+        <v>-0.017171837738131579</v>
       </c>
       <c r="B13" s="0">
-        <v>0.01708448072376445</v>
+        <v>0.01708284834378393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090844808170782443</v>
+        <v>-0.0090828484017695388</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090548454806826939</v>
+        <v>0.0090537350118049531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080548455285978093</v>
+        <v>-0.0080537350386071793</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080357183707713276</v>
+        <v>0.008034932845781384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060357184258408303</v>
+        <v>-0.0060349328774682576</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035099802906444</v>
+        <v>0.006003553143477447</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003510036111102</v>
+        <v>-0.0040035531756279497</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999307767098</v>
+        <v>0.0039999999586770585</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.04016368007100013</v>
+        <v>-0.063227141918481777</v>
       </c>
       <c r="B18" s="0">
-        <v>0.040094219848562318</v>
+        <v>0.063069837458098021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.03609421987708572</v>
+        <v>-0.012092158704574363</v>
       </c>
       <c r="B19" s="0">
-        <v>0.035598169821265291</v>
+        <v>0.012016856413185728</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.031598169855721281</v>
+        <v>-0.008016856435041575</v>
       </c>
       <c r="B20" s="0">
-        <v>0.031466625185242236</v>
+        <v>0.0080056861172206339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057069112959809</v>
+        <v>-0.0040056861392976373</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999639279693</v>
+        <v>0.0039999999777498019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045715909343442718</v>
+        <v>-0.136778192064134</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501552605232476</v>
+        <v>0.1356384846541383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501552649768513</v>
+        <v>-0.10120342106467017</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099487012439816</v>
+        <v>0.099909281553330231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099487159193075</v>
+        <v>-0.079909281666067145</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999851286532</v>
+        <v>0.079235648792076674</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.05707278029353624</v>
+        <v>-0.060253777363817207</v>
       </c>
       <c r="B25" s="0">
-        <v>0.057037286909782381</v>
+        <v>0.060204809846368335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.054537286952205832</v>
+        <v>-0.057704809878300622</v>
       </c>
       <c r="B26" s="0">
-        <v>0.054493766309755998</v>
+        <v>0.05764464685750248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.051993766353790161</v>
+        <v>-0.055144646890664895</v>
       </c>
       <c r="B27" s="0">
-        <v>0.051747791358687678</v>
+        <v>0.054805933580905908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.049747791405940767</v>
+        <v>-0.052805933616621559</v>
       </c>
       <c r="B28" s="0">
-        <v>0.049591246389038446</v>
+        <v>0.05258812996636486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081354448969979565</v>
+        <v>-0.045588130027940821</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081169705119398472</v>
+        <v>0.045535809589376086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021169705556496332</v>
+        <v>0.014464190108755659</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02102267829767257</v>
+        <v>-0.014484168913614592</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022678389666865</v>
+        <v>-0.014023484540681252</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000990705294925</v>
+        <v>0.01400130359244578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009908174578612</v>
+        <v>-0.0040013036683728131</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999270783348</v>
+        <v>0.003999999950998756</v>
       </c>
     </row>
   </sheetData>
